--- a/氣象性能評估工具V2/data/obs/backup/2016-06-06_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-06_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-06 00:00:00</t>
+    <t>2016-06-06-00</t>
   </si>
   <si>
     <t>21.2</t>
@@ -157,7 +157,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-06 01:00:00</t>
+    <t>2016-06-06-01</t>
   </si>
   <si>
     <t>20.9</t>
@@ -202,7 +202,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-06 02:00:00</t>
+    <t>2016-06-06-02</t>
   </si>
   <si>
     <t>22.0</t>
@@ -229,7 +229,7 @@
     <t>27.8</t>
   </si>
   <si>
-    <t>2016-06-06 03:00:00</t>
+    <t>2016-06-06-03</t>
   </si>
   <si>
     <t>22.1</t>
@@ -256,7 +256,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-06 04:00:00</t>
+    <t>2016-06-06-04</t>
   </si>
   <si>
     <t>22.2</t>
@@ -277,7 +277,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-06 05:00:00</t>
+    <t>2016-06-06-05</t>
   </si>
   <si>
     <t>23.3</t>
@@ -289,7 +289,7 @@
     <t>20.2</t>
   </si>
   <si>
-    <t>2016-06-06 06:00:00</t>
+    <t>2016-06-06-06</t>
   </si>
   <si>
     <t>23.2</t>
@@ -319,7 +319,7 @@
     <t>28.7</t>
   </si>
   <si>
-    <t>2016-06-06 07:00:00</t>
+    <t>2016-06-06-07</t>
   </si>
   <si>
     <t>23.0</t>
@@ -358,7 +358,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-06 08:00:00</t>
+    <t>2016-06-06-08</t>
   </si>
   <si>
     <t>28.9</t>
@@ -385,7 +385,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-06 09:00:00</t>
+    <t>2016-06-06-09</t>
   </si>
   <si>
     <t>20.6</t>
@@ -418,7 +418,7 @@
     <t>31.5</t>
   </si>
   <si>
-    <t>2016-06-06 10:00:00</t>
+    <t>2016-06-06-10</t>
   </si>
   <si>
     <t>23.1</t>
@@ -445,7 +445,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-06 11:00:00</t>
+    <t>2016-06-06-11</t>
   </si>
   <si>
     <t>22.4</t>
@@ -472,7 +472,7 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>2016-06-06 12:00:00</t>
+    <t>2016-06-06-12</t>
   </si>
   <si>
     <t>23.9</t>
@@ -496,7 +496,7 @@
     <t>31.7</t>
   </si>
   <si>
-    <t>2016-06-06 13:00:00</t>
+    <t>2016-06-06-13</t>
   </si>
   <si>
     <t>20.7</t>
@@ -517,7 +517,7 @@
     <t>36.4</t>
   </si>
   <si>
-    <t>2016-06-06 14:00:00</t>
+    <t>2016-06-06-14</t>
   </si>
   <si>
     <t>6.8</t>
@@ -526,7 +526,7 @@
     <t>35.6</t>
   </si>
   <si>
-    <t>2016-06-06 15:00:00</t>
+    <t>2016-06-06-15</t>
   </si>
   <si>
     <t>22.6</t>
@@ -538,7 +538,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-06 16:00:00</t>
+    <t>2016-06-06-16</t>
   </si>
   <si>
     <t>22.7</t>
@@ -550,7 +550,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-06 17:00:00</t>
+    <t>2016-06-06-17</t>
   </si>
   <si>
     <t>21.1</t>
@@ -562,7 +562,7 @@
     <t>13.2</t>
   </si>
   <si>
-    <t>2016-06-06 18:00:00</t>
+    <t>2016-06-06-18</t>
   </si>
   <si>
     <t>20.4</t>
@@ -571,7 +571,7 @@
     <t>29.4</t>
   </si>
   <si>
-    <t>2016-06-06 19:00:00</t>
+    <t>2016-06-06-19</t>
   </si>
   <si>
     <t>20.1</t>
@@ -583,10 +583,10 @@
     <t>12.8</t>
   </si>
   <si>
-    <t>2016-06-06 20:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-06 21:00:00</t>
+    <t>2016-06-06-20</t>
+  </si>
+  <si>
+    <t>2016-06-06-21</t>
   </si>
   <si>
     <t>19.8</t>
@@ -601,10 +601,10 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>2016-06-06 22:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-06 23:00:00</t>
+    <t>2016-06-06-22</t>
+  </si>
+  <si>
+    <t>2016-06-06-23</t>
   </si>
   <si>
     <t>24.9</t>
